--- a/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
@@ -451,267 +451,357 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6698</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>260112</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>景顺长城能源基建混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>63.93</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>9.89</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8654</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000979</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001278</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>37.83</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.40</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>006700</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>红土创新稳健混合A</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>39.60</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.32</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>006701</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>红土创新稳健混合C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>39.60</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.32</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159962</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏中证四川国企改革ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>96.22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009098</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城价值领航两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>70.46</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003805</t>
+          <t>000979</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安新恒利灵活配置混合A</t>
+          <t>景顺长城沪港深精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>24.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003806</t>
+          <t>009098</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安新恒利灵活配置混合C</t>
+          <t>景顺长城价值领航两年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>69.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000979</t>
+          <t>008850</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城沪港深精选股票</t>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83.92</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8791</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008060</t>
+          <t>260112</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城价值边际灵活配置混合</t>
+          <t>景顺长城能源基建混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>77.74</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>60.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6505</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008850</t>
+          <t>008060</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+          <t>景顺长城价值边际灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>77.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002666</t>
+          <t>001278</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
+          <t>前海开源清洁能源主题精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>70.60</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002667</t>
+          <t>673110</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
+          <t>西部利得新润灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>70.60</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>260112</t>
+          <t>002666</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城能源基建混合</t>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>60.41</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010043</t>
+          <t>006952</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘安康颐和混合A</t>
+          <t>中银景元回报混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>29.30</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010044</t>
+          <t>159962</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘安康颐和混合C</t>
+          <t>华夏中证四川国企改革ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>29.30</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006343</t>
+          <t>010487</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中金MSCI中国A股国际低波动指数A</t>
+          <t>中银顺盈回报一年持有期混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006344</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中金MSCI中国A股国际低波动指数C</t>
+          <t>前海开源清洁能源主题精选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000706</t>
+          <t>512390</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中邮多策略灵活配置混合</t>
+          <t>平安MSCI中国A股低波动ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>59.43</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010487</t>
+          <t>010043</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中银顺盈回报一年持有期混合</t>
+          <t>天弘安康颐和混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>31.67</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>29.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006952</t>
+          <t>003805</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中银景元回报混合</t>
+          <t>华安新恒利灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28.84</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>010044</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合A</t>
+          <t>天弘安康颐和混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>37.28</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>29.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>002667</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合C</t>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>37.28</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>512390</t>
+          <t>006343</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>平安MSCI中国A股低波动ETF</t>
+          <t>中金MSCI中国A股国际低波动指数A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>97.84</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001797</t>
+          <t>003806</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华融新利灵活配置混合</t>
+          <t>华安新恒利灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>55.59</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>159962</t>
+          <t>000706</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华夏中证四川国企改革ETF</t>
+          <t>中邮多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>95.88</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>59.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>673110</t>
+          <t>001797</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>西部利得新润灵活配置混合</t>
+          <t>华融新利灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>80.27</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>55.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009098</t>
+          <t>006344</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>景顺长城价值领航两年持有期混合</t>
+          <t>中金MSCI中国A股国际低波动指数C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>69.93</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1695,4 +1696,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0485</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2201</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9231</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7612</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4985</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001139</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006343</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006344</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2740,4 +2741,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6001</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1240</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4770</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0930</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0318</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9312</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5812</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5465</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3232</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001139</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3671,4 +3672,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3680,7 +3681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3691,17 +3692,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3711,14 +3732,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.57</v>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0904</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3727,14 +3770,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.4</v>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5163</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3743,14 +3808,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.31</v>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0924</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3759,13 +3846,721 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0633</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8678</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5052</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>35.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001139</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4459,7 +4460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4470,17 +4471,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4490,14 +4511,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.109999999999999</v>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4682</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4506,14 +4549,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.57</v>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4522,14 +4587,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.4</v>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2437</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4538,14 +4625,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.31</v>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1437</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4554,13 +4663,889 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9139</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6857</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4348</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3940</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2930</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.210000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5428,7 +5429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5439,17 +5440,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5459,14 +5480,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.210000000000001</v>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -5475,14 +5518,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.109999999999999</v>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4905</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5491,14 +5556,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.57</v>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4548</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5507,14 +5594,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.4</v>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0146</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5523,14 +5632,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.31</v>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8333</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -5539,13 +5670,905 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7620</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4925</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4609</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3908</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2862</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001485</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安添颐混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.210000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>10.24</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>9.210000000000001</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>8.109999999999999</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>12.57</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>6.4</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>6.31</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.81</v>
       </c>
     </row>
@@ -600,6 +617,1314 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4679</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7066</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6673</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5870</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5634</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4229</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3606</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>61.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>561700</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>52.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>561560</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>562350</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015731</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015356</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1605,7 +2930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2573,7 +3898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3351,7 +4676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4281,7 +5606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5325,7 +6650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6217,7 +7542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600674-川投能源.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>10.23</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>10.24</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>9.210000000000001</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>8.109999999999999</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>12.57</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>6.4</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>6.31</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,390 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6698</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8654</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +994,1202 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1584</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1324</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5471</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6993</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6649</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6422</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5335</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5150</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>017090</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010839</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>561700</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>561560</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011086</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达瑞康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015731</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>562350</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011087</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达瑞康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010840</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达瑞安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1924,7 +3497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2930,7 +4503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3898,7 +5471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4676,7 +6249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5606,7 +7179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6650,7 +8223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7540,364 +9113,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000979</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6698</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009098</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城价值领航两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.73</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>70.46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9409</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>260112</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城能源基建混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8654</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001278</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1795</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159962</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏中证四川国企改革ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>96.22</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0843</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0506</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006700</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006701</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>